--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_036.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_036.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="220">
   <si>
     <t>Sezione</t>
   </si>
@@ -455,6 +455,9 @@
     <t>idAnsc</t>
   </si>
   <si>
+    <t>opzionale</t>
+  </si>
+  <si>
     <t>Provincia registrazione</t>
   </si>
   <si>
@@ -519,6 +522,12 @@
   </si>
   <si>
     <t>tipologia</t>
+  </si>
+  <si>
+    <t>Atto non trascritto</t>
+  </si>
+  <si>
+    <t>attoNascitaNonTrascritto</t>
   </si>
   <si>
     <t>Atto Nascita Coniuge</t>
@@ -721,7 +730,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H243"/>
+  <dimension ref="A1:H244"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2642,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -2650,7 +2659,7 @@
         <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2659,13 +2668,13 @@
         <v>145</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="85">
@@ -2673,7 +2682,7 @@
         <v>143</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2682,13 +2691,13 @@
         <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -2696,7 +2705,7 @@
         <v>143</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2705,13 +2714,13 @@
         <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -2719,7 +2728,7 @@
         <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2728,13 +2737,13 @@
         <v>145</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="88">
@@ -2742,22 +2751,22 @@
         <v>143</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="89">
@@ -2765,7 +2774,7 @@
         <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
@@ -2780,7 +2789,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90">
@@ -2788,7 +2797,7 @@
         <v>143</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2797,13 +2806,13 @@
         <v>145</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91">
@@ -2811,7 +2820,7 @@
         <v>143</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>12</v>
@@ -2826,7 +2835,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92">
@@ -2834,7 +2843,7 @@
         <v>143</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>12</v>
@@ -2843,13 +2852,13 @@
         <v>145</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93">
@@ -2857,7 +2866,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>12</v>
@@ -2866,13 +2875,13 @@
         <v>145</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94">
@@ -2880,7 +2889,7 @@
         <v>143</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>12</v>
@@ -2889,13 +2898,13 @@
         <v>145</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95">
@@ -2903,188 +2912,188 @@
         <v>143</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>145</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>158</v>
@@ -3093,131 +3102,131 @@
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109">
@@ -3225,165 +3234,165 @@
         <v>172</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>158</v>
@@ -3392,1459 +3401,1459 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4855,19 +4864,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>10</v>
@@ -4878,19 +4887,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
@@ -4901,19 +4910,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4924,19 +4933,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4947,19 +4956,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4970,19 +4979,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4993,19 +5002,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -5016,19 +5025,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -5039,19 +5048,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>10</v>
@@ -5062,19 +5071,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
@@ -5085,19 +5094,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>10</v>
@@ -5108,19 +5117,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>10</v>
@@ -5131,19 +5140,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
@@ -5154,19 +5163,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5177,19 +5186,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>10</v>
@@ -5200,19 +5209,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>10</v>
@@ -5223,19 +5232,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
@@ -5246,19 +5255,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>10</v>
@@ -5269,19 +5278,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>10</v>
@@ -5292,19 +5301,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>10</v>
@@ -5315,19 +5324,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>10</v>
@@ -5338,19 +5347,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>10</v>
@@ -5361,19 +5370,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>10</v>
@@ -5384,19 +5393,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>10</v>
@@ -5407,19 +5416,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5430,19 +5439,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5453,19 +5462,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
@@ -5476,19 +5485,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>10</v>
@@ -5499,19 +5508,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
@@ -5522,19 +5531,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5545,19 +5554,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
@@ -5568,19 +5577,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>146</v>
+        <v>33</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>10</v>
@@ -5591,19 +5600,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>10</v>
@@ -5614,19 +5623,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>10</v>
@@ -5637,19 +5646,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>10</v>
@@ -5660,19 +5669,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>10</v>
@@ -5683,19 +5692,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>10</v>
@@ -5706,16 +5715,16 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>206</v>
@@ -5729,19 +5738,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>10</v>
@@ -5752,10 +5761,10 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -5764,7 +5773,7 @@
         <v>50</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>10</v>
@@ -5775,145 +5784,145 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B221" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F221" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F222" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B223" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C223" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F223" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B224" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C224" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F224" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F225" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>158</v>
@@ -5922,44 +5931,44 @@
         <v>12</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B227" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>161</v>
@@ -5968,85 +5977,85 @@
         <v>12</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C229" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F229" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F230" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C231" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="F231" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="232">
@@ -6054,7 +6063,7 @@
         <v>214</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>12</v>
@@ -6063,7 +6072,7 @@
         <v>215</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>10</v>
@@ -6074,122 +6083,122 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C233" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F233" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="F234" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="F235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="F236" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F237" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>158</v>
@@ -6198,44 +6207,44 @@
         <v>12</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F239" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>161</v>
@@ -6244,85 +6253,108 @@
         <v>12</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>216</v>
+      <c r="C244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
